--- a/Public/Admin/images/shoufei.xlsx
+++ b/Public/Admin/images/shoufei.xlsx
@@ -16,20 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>费用名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>科室一级（为科室编号）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>科室二级编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>票据名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -59,6 +51,34 @@
   </si>
   <si>
     <t>BKL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁和可立克</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸福科达琳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸福科达琳DD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费类别ID号，类别里面查看</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -424,72 +444,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="7" max="7" width="26.375" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="6" max="6" width="26.375" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>90</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1"/>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>90</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>500</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
+      <c r="G4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Public/Admin/images/shoufei.xlsx
+++ b/Public/Admin/images/shoufei.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>费用名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -38,14 +38,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>白克力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白克力票据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>单价（为纯数字）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -54,22 +46,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>仁和可立克</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>元</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>幸福科达琳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸福科达琳DD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>D</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -79,6 +59,30 @@
   </si>
   <si>
     <t>消费类别ID号，类别里面查看</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号（前缀无需）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同样容易</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tertiary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外仍然</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>押头韵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二恶烷</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -447,7 +451,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -457,6 +461,7 @@
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="6" max="6" width="26.375" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -467,10 +472,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -481,14 +486,16 @@
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>90</v>
@@ -503,15 +510,18 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>4454</v>
       </c>
       <c r="C3">
         <v>90</v>
@@ -520,36 +530,42 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
